--- a/resources/GINF3/notes.xlsx
+++ b/resources/GINF3/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GINF3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F4B6B-0D44-42F2-AA3B-6C857AA419B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E60841-DF63-409C-9234-2DA1524583A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>CNE</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Note_GINF56</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
 </sst>
 </file>
@@ -687,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +704,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,11 +738,8 @@
       <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>378</v>
       </c>
@@ -773,12 +767,8 @@
       <c r="K2">
         <v>12</v>
       </c>
-      <c r="L2">
-        <f>AVERAGE(D2:K2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>379</v>
       </c>
@@ -806,12 +796,8 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L48" si="0">AVERAGE(D3:K3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>380</v>
       </c>
@@ -839,12 +825,8 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>381</v>
       </c>
@@ -872,12 +854,8 @@
       <c r="K5">
         <v>12</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>382</v>
       </c>
@@ -905,12 +883,8 @@
       <c r="K6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>383</v>
       </c>
@@ -938,12 +912,8 @@
       <c r="K7">
         <v>12</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>12.833333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>384</v>
       </c>
@@ -971,12 +941,8 @@
       <c r="K8">
         <v>12</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>385</v>
       </c>
@@ -1004,12 +970,8 @@
       <c r="K9">
         <v>12</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>386</v>
       </c>
@@ -1037,12 +999,8 @@
       <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>387</v>
       </c>
@@ -1070,12 +1028,8 @@
       <c r="K11">
         <v>12</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>388</v>
       </c>
@@ -1103,12 +1057,8 @@
       <c r="K12">
         <v>12</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>389</v>
       </c>
@@ -1136,12 +1086,8 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>390</v>
       </c>
@@ -1169,12 +1115,8 @@
       <c r="K14">
         <v>12</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>391</v>
       </c>
@@ -1202,12 +1144,8 @@
       <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>392</v>
       </c>
@@ -1235,12 +1173,8 @@
       <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>393</v>
       </c>
@@ -1268,12 +1202,8 @@
       <c r="K17">
         <v>12</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>394</v>
       </c>
@@ -1301,12 +1231,8 @@
       <c r="K18">
         <v>12</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>395</v>
       </c>
@@ -1334,12 +1260,8 @@
       <c r="K19">
         <v>12</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>396</v>
       </c>
@@ -1367,12 +1289,8 @@
       <c r="K20">
         <v>12</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>397</v>
       </c>
@@ -1400,12 +1318,8 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>398</v>
       </c>
@@ -1433,12 +1347,8 @@
       <c r="K22">
         <v>12</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>399</v>
       </c>
@@ -1466,12 +1376,8 @@
       <c r="K23">
         <v>12</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>400</v>
       </c>
@@ -1499,12 +1405,8 @@
       <c r="K24">
         <v>12</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>401</v>
       </c>
@@ -1532,12 +1434,8 @@
       <c r="K25">
         <v>12</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>402</v>
       </c>
@@ -1565,12 +1463,8 @@
       <c r="K26">
         <v>12</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>403</v>
       </c>
@@ -1598,12 +1492,8 @@
       <c r="K27">
         <v>12</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>404</v>
       </c>
@@ -1631,12 +1521,8 @@
       <c r="K28">
         <v>12</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>405</v>
       </c>
@@ -1664,12 +1550,8 @@
       <c r="K29">
         <v>12</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>406</v>
       </c>
@@ -1697,12 +1579,8 @@
       <c r="K30">
         <v>12</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>407</v>
       </c>
@@ -1730,12 +1608,8 @@
       <c r="K31">
         <v>12</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>408</v>
       </c>
@@ -1763,12 +1637,8 @@
       <c r="K32">
         <v>12</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>409</v>
       </c>
@@ -1796,12 +1666,8 @@
       <c r="K33">
         <v>12</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>410</v>
       </c>
@@ -1829,12 +1695,8 @@
       <c r="K34">
         <v>12</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>411</v>
       </c>
@@ -1862,12 +1724,8 @@
       <c r="K35">
         <v>12</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>412</v>
       </c>
@@ -1895,12 +1753,8 @@
       <c r="K36">
         <v>12</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>413</v>
       </c>
@@ -1928,12 +1782,8 @@
       <c r="K37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>414</v>
       </c>
@@ -1961,12 +1811,8 @@
       <c r="K38">
         <v>12</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>415</v>
       </c>
@@ -1994,12 +1840,8 @@
       <c r="K39">
         <v>12</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>416</v>
       </c>
@@ -2027,12 +1869,8 @@
       <c r="K40">
         <v>12</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>417</v>
       </c>
@@ -2060,12 +1898,8 @@
       <c r="K41">
         <v>12</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>418</v>
       </c>
@@ -2093,12 +1927,8 @@
       <c r="K42">
         <v>12</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>419</v>
       </c>
@@ -2126,12 +1956,8 @@
       <c r="K43">
         <v>12</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>420</v>
       </c>
@@ -2159,12 +1985,8 @@
       <c r="K44">
         <v>12</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>421</v>
       </c>
@@ -2192,12 +2014,8 @@
       <c r="K45">
         <v>12</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>422</v>
       </c>
@@ -2225,12 +2043,8 @@
       <c r="K46">
         <v>12</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>423</v>
       </c>
@@ -2258,12 +2072,8 @@
       <c r="K47">
         <v>12</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>424</v>
       </c>
@@ -2289,10 +2099,6 @@
         <v>12</v>
       </c>
       <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
